--- a/upload/cases/3/4.xlsx
+++ b/upload/cases/3/4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="11775" yWindow="2535" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="11775" yWindow="2535" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>TestCase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,77 @@
   </si>
   <si>
     <t>${msg1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP/login?username=ted1&amp;password=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP/login?username=ted1&amp;password=ted1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP/login?username=ted1@&amp;password=ted1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>恭喜您，登录成功</t>
+    <rPh sb="0" eb="1">
+      <t>can's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cuo'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP/login?username=ted1@&amp;password=123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP/login?password=123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP/login?username=ted1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP/login?username=te@&amp;password=123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP/login?username=ted1ted1ted1ted1t@&amp;password=123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -716,20 +787,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="49.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="4" width="11.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -739,19 +810,67 @@
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -761,8 +880,32 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -772,8 +915,32 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -783,8 +950,32 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -794,8 +985,32 @@
       <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -804,6 +1019,30 @@
       </c>
       <c r="C7" t="s">
         <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
